--- a/Modified Data/CSE/CSE_only_periods.xlsx
+++ b/Modified Data/CSE/CSE_only_periods.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="114">
   <si>
     <t xml:space="preserve">BLOCK</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t xml:space="preserve">ML(LH2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LH-4</t>
   </si>
 </sst>
 </file>
@@ -1637,8 +1640,8 @@
   </sheetPr>
   <dimension ref="A1:AU1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5080,7 +5083,7 @@
         <v>68</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E25" s="9" t="n">
         <v>60</v>
